--- a/Testing/IMU data/Original/wave3.xlsx
+++ b/Testing/IMU data/Original/wave3.xlsx
@@ -1,28 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tris/Documents/2022UCT/2nd sem/3097/SHARC_buoy_data_transmission/Testing/IMU data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9510 i9\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B73E98A-F57C-2845-8FCE-EBFFA00FFB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D605B1-BF9E-4E2F-9AFF-A99825F293ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="18180" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wave3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">wave3!$D$1:$D$174</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">wave3!$E$1:$E$174</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">wave3!$F$1:$F$174</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">wave3!$D$1:$D$174</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">wave3!$E$1:$E$174</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">wave3!$F$1:$F$174</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -30,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>37.51.01</t>
+    <t>37,51,01</t>
   </si>
   <si>
-    <t>15.31.760</t>
+    <t>15,31,760</t>
   </si>
   <si>
-    <t>7.7610.53</t>
+    <t>7,7610,53</t>
   </si>
   <si>
-    <t>7.365.1</t>
+    <t>7,365,1</t>
   </si>
   <si>
-    <t>3.92.63</t>
+    <t>3,92,63</t>
   </si>
 </sst>
 </file>
@@ -526,10 +518,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -887,23 +877,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="8.83203125" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2">
-        <v>-28</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="B1">
         <v>-0.51</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1">
         <v>0.32</v>
       </c>
       <c r="D1">
@@ -912,18 +899,18 @@
       <c r="E1">
         <v>-8.75</v>
       </c>
-      <c r="F1" s="1">
-        <v>11012</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="F1">
+        <v>11.012</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>-0.47</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>0.23</v>
       </c>
       <c r="D2">
@@ -932,18 +919,18 @@
       <c r="E2">
         <v>-15.88</v>
       </c>
-      <c r="F2" s="1">
-        <v>7852</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="F2">
+        <v>7.8520000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>-0.23</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>-0.47</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>0.28000000000000003</v>
       </c>
       <c r="D3">
@@ -956,14 +943,14 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>-0.25</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>-0.78</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>0.18</v>
       </c>
       <c r="D4">
@@ -972,18 +959,18 @@
       <c r="E4">
         <v>35.770000000000003</v>
       </c>
-      <c r="F4" s="1">
-        <v>19798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="F4">
+        <v>19.797999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>-0.33</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>-0.69</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0.21</v>
       </c>
       <c r="D5">
@@ -996,14 +983,14 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>-0.36</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>-0.61</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0.37</v>
       </c>
       <c r="D6">
@@ -1012,18 +999,18 @@
       <c r="E6">
         <v>-10.210000000000001</v>
       </c>
-      <c r="F6" s="1">
-        <v>-2178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="F6">
+        <v>-2.1779999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>-0.35</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>-0.47</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>0.27</v>
       </c>
       <c r="D7">
@@ -1036,14 +1023,14 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>-0.44</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>-0.66</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>0.3</v>
       </c>
       <c r="D8">
@@ -1056,14 +1043,14 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>-0.33</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>-0.63</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>0.36</v>
       </c>
       <c r="D9">
@@ -1072,18 +1059,18 @@
       <c r="E9">
         <v>-11.57</v>
       </c>
-      <c r="F9" s="1">
-        <v>7532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="F9">
+        <v>7.532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>-0.49</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>-1.05</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>0.11</v>
       </c>
       <c r="D10">
@@ -1096,14 +1083,14 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>-0.78</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>0.08</v>
       </c>
       <c r="D11">
@@ -1116,14 +1103,14 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>-0.74</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>-0.76</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>0.21</v>
       </c>
       <c r="D12">
@@ -1136,14 +1123,14 @@
         <v>16.170000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>-1.48</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>0.39</v>
       </c>
       <c r="D13">
@@ -1156,14 +1143,14 @@
         <v>-32.299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>-0.66</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>-0.44</v>
       </c>
       <c r="D14">
@@ -1176,14 +1163,14 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>-0.01</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>-1.17</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>-0.28999999999999998</v>
       </c>
       <c r="D15">
@@ -1196,14 +1183,14 @@
         <v>-55.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>-0.41</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>-1.25</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>0.23</v>
       </c>
       <c r="D16">
@@ -1216,14 +1203,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>-0.46</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>-0.74</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>0.37</v>
       </c>
       <c r="D17">
@@ -1232,18 +1219,18 @@
       <c r="E17">
         <v>-24.34</v>
       </c>
-      <c r="F17" s="1">
-        <v>215001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="F17">
+        <v>21.5001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>-0.5</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>-1</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>0.05</v>
       </c>
       <c r="D18">
@@ -1252,18 +1239,18 @@
       <c r="E18">
         <v>6.49</v>
       </c>
-      <c r="F18" s="1">
-        <v>8235001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="F18">
+        <v>8.2350010000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>-0.49</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>-0.91</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>0.04</v>
       </c>
       <c r="D19">
@@ -1272,18 +1259,18 @@
       <c r="E19">
         <v>-14.43</v>
       </c>
-      <c r="F19" s="1">
-        <v>-52801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="F19">
+        <v>-5.2801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>-0.49</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>-0.89</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>0.28000000000000003</v>
       </c>
       <c r="D20">
@@ -1292,18 +1279,18 @@
       <c r="E20">
         <v>-11.86</v>
       </c>
-      <c r="F20" s="1">
-        <v>-49801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="F20">
+        <v>-4.9801000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>-0.38</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>-0.93</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>0.08</v>
       </c>
       <c r="D21">
@@ -1312,18 +1299,18 @@
       <c r="E21">
         <v>-16.38</v>
       </c>
-      <c r="F21" s="1">
-        <v>37701</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="F21">
+        <v>3.7700999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>-0.46</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>-0.84</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>0.13</v>
       </c>
       <c r="D22">
@@ -1332,18 +1319,18 @@
       <c r="E22">
         <v>-18.989999999999998</v>
       </c>
-      <c r="F22" s="1">
-        <v>139501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="F22">
+        <v>13.950100000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>-0.41</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>-0.74</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>0.28999999999999998</v>
       </c>
       <c r="D23">
@@ -1352,18 +1339,18 @@
       <c r="E23">
         <v>-0.98</v>
       </c>
-      <c r="F23" s="1">
-        <v>443501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="F23">
+        <v>4.4350100000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>-0.35</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>-0.66</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>0.2</v>
       </c>
       <c r="D24">
@@ -1372,18 +1359,18 @@
       <c r="E24">
         <v>-3.04</v>
       </c>
-      <c r="F24" s="1">
-        <v>690501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="F24">
+        <v>6.9050099999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>-0.42</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>-0.75</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>0.28000000000000003</v>
       </c>
       <c r="D25">
@@ -1392,18 +1379,18 @@
       <c r="E25">
         <v>-14.17</v>
       </c>
-      <c r="F25" s="1">
-        <v>16931</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="F25">
+        <v>16.931000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>-0.45</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>-0.8</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>0.41</v>
       </c>
       <c r="D26">
@@ -1412,18 +1399,18 @@
       <c r="E26">
         <v>-12.85</v>
       </c>
-      <c r="F26" s="1">
-        <v>563931</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="F26">
+        <v>5.63931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>-0.19</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>0.28999999999999998</v>
       </c>
       <c r="D27">
@@ -1432,18 +1419,18 @@
       <c r="E27">
         <v>-46.4</v>
       </c>
-      <c r="F27" s="1">
-        <v>-21131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="F27">
+        <v>-21.131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>-0.27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>-0.1</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>0.2</v>
       </c>
       <c r="D28">
@@ -1452,18 +1439,18 @@
       <c r="E28">
         <v>-65.040000000000006</v>
       </c>
-      <c r="F28" s="1">
-        <v>9711</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="F28">
+        <v>9.7110000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>-0.26</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>-0.73</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>0.57999999999999996</v>
       </c>
       <c r="D29">
@@ -1476,14 +1463,14 @@
         <v>-38.409999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>-0.46</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>-0.65</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>1.0900000000000001</v>
       </c>
       <c r="D30">
@@ -1492,18 +1479,18 @@
       <c r="E30">
         <v>-24.67</v>
       </c>
-      <c r="F30" s="1">
-        <v>150841</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="F30">
+        <v>15.084099999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>-0.5</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>-0.85</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>0.23</v>
       </c>
       <c r="D31">
@@ -1512,18 +1499,18 @@
       <c r="E31">
         <v>-4.41</v>
       </c>
-      <c r="F31" s="1">
-        <v>144441</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="F31">
+        <v>14.444100000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>-0.52</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>-0.73</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>0.25</v>
       </c>
       <c r="D32">
@@ -1532,18 +1519,18 @@
       <c r="E32">
         <v>-9.07</v>
       </c>
-      <c r="F32" s="1">
-        <v>858441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="F32">
+        <v>8.5844100000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>-0.84</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>0.31</v>
       </c>
       <c r="D33">
@@ -1552,18 +1539,18 @@
       <c r="E33">
         <v>-9.7899999999999991</v>
       </c>
-      <c r="F33" s="1">
-        <v>143541</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="F33">
+        <v>14.354100000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>-0.61</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>-0.8</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>0.16</v>
       </c>
       <c r="D34">
@@ -1572,18 +1559,18 @@
       <c r="E34">
         <v>-12.2</v>
       </c>
-      <c r="F34" s="1">
-        <v>104441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="F34">
+        <v>10.444100000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>-0.74</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>0.24</v>
       </c>
       <c r="D35">
@@ -1592,18 +1579,18 @@
       <c r="E35">
         <v>-15.73</v>
       </c>
-      <c r="F35" s="1">
-        <v>67041</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="F35">
+        <v>6.7041000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>-0.81</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>0.24</v>
       </c>
       <c r="D36">
@@ -1612,18 +1599,18 @@
       <c r="E36">
         <v>-10.15</v>
       </c>
-      <c r="F36" s="1">
-        <v>108741</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="F36">
+        <v>10.8741</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>-0.6</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>-0.76</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>0.19</v>
       </c>
       <c r="D37">
@@ -1632,18 +1619,18 @@
       <c r="E37">
         <v>-13.4</v>
       </c>
-      <c r="F37" s="1">
-        <v>979741</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="F37">
+        <v>9.7974099999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>-0.35</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>-0.71</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>0.75</v>
       </c>
       <c r="D38">
@@ -1652,18 +1639,18 @@
       <c r="E38">
         <v>-93.08</v>
       </c>
-      <c r="F38" s="1">
-        <v>93141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="F38">
+        <v>9.3140999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>-0.36</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>-0.33</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>-0.08</v>
       </c>
       <c r="D39">
@@ -1676,14 +1663,14 @@
         <v>-13.88</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>-0.46</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>-0.49</v>
       </c>
       <c r="D40">
@@ -1692,18 +1679,18 @@
       <c r="E40">
         <v>64.400000000000006</v>
       </c>
-      <c r="F40" s="1">
-        <v>-1718</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="F40">
+        <v>-1.718</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>-0.53</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>-0.31</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>0.13</v>
       </c>
       <c r="D41">
@@ -1716,14 +1703,14 @@
         <v>-70.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>-0.54</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>-0.84</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>0.46</v>
       </c>
       <c r="D42">
@@ -1732,18 +1719,18 @@
       <c r="E42">
         <v>-55.98</v>
       </c>
-      <c r="F42" s="1">
-        <v>21760</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="F42">
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>-0.5</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>-0.9</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>0.12</v>
       </c>
       <c r="D43">
@@ -1756,14 +1743,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>-0.54</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>-0.81</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>0.13</v>
       </c>
       <c r="D44">
@@ -1772,18 +1759,18 @@
       <c r="E44">
         <v>-8.9499999999999993</v>
       </c>
-      <c r="F44" s="1">
-        <v>779760</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="F44">
+        <v>7.7976000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>-0.84</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>0.22</v>
       </c>
       <c r="D45">
@@ -1792,18 +1779,18 @@
       <c r="E45">
         <v>-10.96</v>
       </c>
-      <c r="F45" s="1">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="F45">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>-0.79</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>0.22</v>
       </c>
       <c r="D46">
@@ -1812,18 +1799,18 @@
       <c r="E46">
         <v>-15.51</v>
       </c>
-      <c r="F46" s="1">
-        <v>7950</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="F46">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>-0.73</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>0.31</v>
       </c>
       <c r="D47">
@@ -1832,18 +1819,18 @@
       <c r="E47">
         <v>-14.17</v>
       </c>
-      <c r="F47" s="1">
-        <v>9150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="F47">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>-0.59</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>-0.81</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>0.13</v>
       </c>
       <c r="D48">
@@ -1852,18 +1839,18 @@
       <c r="E48">
         <v>-14.52</v>
       </c>
-      <c r="F48" s="1">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="F48">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>-0.92</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>0.22</v>
       </c>
       <c r="D49">
@@ -1872,18 +1859,18 @@
       <c r="E49">
         <v>-25.68</v>
       </c>
-      <c r="F49" s="1">
-        <v>-3510</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="F49">
+        <v>-3.51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>-1.05</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>0.16</v>
       </c>
       <c r="D50">
@@ -1896,14 +1883,14 @@
         <v>-13.77</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>-1.08</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>-0.19</v>
       </c>
       <c r="D51">
@@ -1912,18 +1899,18 @@
       <c r="E51">
         <v>-34.659999999999997</v>
       </c>
-      <c r="F51" s="1">
-        <v>-5457</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="F51">
+        <v>-5.4569999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>-0.79</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>-1.0900000000000001</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
         <v>0.23</v>
       </c>
       <c r="D52">
@@ -1932,18 +1919,18 @@
       <c r="E52">
         <v>136.27000000000001</v>
       </c>
-      <c r="F52" s="1">
-        <v>56557</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="F52">
+        <v>5.6557000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>-0.65</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <v>-0.95</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>0.12</v>
       </c>
       <c r="D53">
@@ -1952,18 +1939,18 @@
       <c r="E53">
         <v>-10.46</v>
       </c>
-      <c r="F53" s="1">
-        <v>20437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="F53">
+        <v>20.437000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>-0.51</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
         <v>-0.8</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
         <v>-0.01</v>
       </c>
       <c r="D54">
@@ -1972,18 +1959,18 @@
       <c r="E54">
         <v>-0.03</v>
       </c>
-      <c r="F54" s="1">
-        <v>5247</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="F54">
+        <v>5.2469999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>-0.59</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <v>-0.95</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55">
         <v>0.21</v>
       </c>
       <c r="D55">
@@ -1992,18 +1979,18 @@
       <c r="E55">
         <v>-2.2400000000000002</v>
       </c>
-      <c r="F55" s="1">
-        <v>23247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="F55">
+        <v>2.3247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>-0.63</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <v>-0.96</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56">
         <v>0.05</v>
       </c>
       <c r="D56">
@@ -2012,18 +1999,18 @@
       <c r="E56">
         <v>-24.93</v>
       </c>
-      <c r="F56" s="1">
-        <v>16057</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="F56">
+        <v>16.056999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>-0.61</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
         <v>-1.22</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57">
         <v>0.06</v>
       </c>
       <c r="D57">
@@ -2032,18 +2019,18 @@
       <c r="E57">
         <v>-3.77</v>
       </c>
-      <c r="F57" s="1">
-        <v>501057</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="F57">
+        <v>5.0105700000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>-0.61</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
         <v>-1.07</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58">
         <v>0.16</v>
       </c>
       <c r="D58">
@@ -2056,14 +2043,14 @@
         <v>0.72570000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>-0.37</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <v>-0.72</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>0.54</v>
       </c>
       <c r="D59">
@@ -2076,14 +2063,14 @@
         <v>14.93</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>-0.37</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
         <v>-0.38</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60">
         <v>0.12</v>
       </c>
       <c r="D60">
@@ -2092,18 +2079,18 @@
       <c r="E60">
         <v>-11.48</v>
       </c>
-      <c r="F60" s="1">
-        <v>45923</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="F60">
+        <v>45.923000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>-0.73</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <v>-0.32</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
         <v>-0.04</v>
       </c>
       <c r="D61">
@@ -2116,14 +2103,14 @@
         <v>-5.56</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>-0.72</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
         <v>-0.61</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62">
         <v>0.34</v>
       </c>
       <c r="D62">
@@ -2132,18 +2119,18 @@
       <c r="E62">
         <v>-66.09</v>
       </c>
-      <c r="F62" s="1">
-        <v>18796</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="F62">
+        <v>18.795999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>-0.47</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <v>-0.8</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63">
         <v>0.15</v>
       </c>
       <c r="D63">
@@ -2152,18 +2139,18 @@
       <c r="E63">
         <v>-37.130000000000003</v>
       </c>
-      <c r="F63" s="1">
-        <v>29596</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="F63">
+        <v>29.596</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
         <v>-0.89</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64">
         <v>0.09</v>
       </c>
       <c r="D64">
@@ -2172,18 +2159,18 @@
       <c r="E64">
         <v>7.92</v>
       </c>
-      <c r="F64" s="1">
-        <v>125696</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="F64">
+        <v>12.569599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>-0.51</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
         <v>-0.82</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
         <v>0.31</v>
       </c>
       <c r="D65">
@@ -2192,18 +2179,18 @@
       <c r="E65">
         <v>-29.37</v>
       </c>
-      <c r="F65" s="1">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+      <c r="F65">
+        <v>1.506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>-0.53</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66">
         <v>-0.82</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66">
         <v>0.27</v>
       </c>
       <c r="D66">
@@ -2212,18 +2199,18 @@
       <c r="E66">
         <v>-1.02</v>
       </c>
-      <c r="F66" s="1">
-        <v>13606</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+      <c r="F66">
+        <v>13.606</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>-0.62</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <v>-0.81</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67">
         <v>0.24</v>
       </c>
       <c r="D67">
@@ -2232,18 +2219,18 @@
       <c r="E67">
         <v>-11.31</v>
       </c>
-      <c r="F67" s="1">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+      <c r="F67">
+        <v>1.1559999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>-0.63</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
         <v>-0.69</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68">
         <v>0.23</v>
       </c>
       <c r="D68">
@@ -2252,18 +2239,18 @@
       <c r="E68">
         <v>-22.12</v>
       </c>
-      <c r="F68" s="1">
-        <v>8826</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="F68">
+        <v>8.8260000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>-0.6</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <v>-0.95</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69">
         <v>0.21</v>
       </c>
       <c r="D69">
@@ -2272,18 +2259,18 @@
       <c r="E69">
         <v>-35.97</v>
       </c>
-      <c r="F69" s="1">
-        <v>10586</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="F69">
+        <v>10.586</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>-0.39</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
         <v>-0.45</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70">
         <v>0.2</v>
       </c>
       <c r="D70">
@@ -2292,18 +2279,18 @@
       <c r="E70">
         <v>-58.49</v>
       </c>
-      <c r="F70" s="1">
-        <v>15686</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="F70">
+        <v>15.686</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>-0.24</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
         <v>-0.6</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71">
         <v>-0.52</v>
       </c>
       <c r="D71">
@@ -2312,18 +2299,18 @@
       <c r="E71">
         <v>43.56</v>
       </c>
-      <c r="F71" s="1">
-        <v>-4826</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+      <c r="F71">
+        <v>-4.8259999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>-0.31</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
         <v>-0.69</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72">
         <v>-0.22</v>
       </c>
       <c r="D72">
@@ -2336,14 +2323,14 @@
         <v>-3.18</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>-0.11</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <v>-0.49</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73">
         <v>0.77</v>
       </c>
       <c r="D73">
@@ -2352,18 +2339,18 @@
       <c r="E73">
         <v>-90.58</v>
       </c>
-      <c r="F73" s="1">
-        <v>31928</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+      <c r="F73">
+        <v>31.928000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>-0.49</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>-0.63</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74">
         <v>0.39</v>
       </c>
       <c r="D74">
@@ -2372,18 +2359,18 @@
       <c r="E74">
         <v>-15.08</v>
       </c>
-      <c r="F74" s="1">
-        <v>7158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+      <c r="F74">
+        <v>7.1580000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
         <v>-0.77</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
         <v>0.16</v>
       </c>
       <c r="D75">
@@ -2392,18 +2379,18 @@
       <c r="E75">
         <v>-11.25</v>
       </c>
-      <c r="F75" s="1">
-        <v>7368</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+      <c r="F75">
+        <v>7.3680000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>-0.54</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
         <v>-0.7</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76">
         <v>0.22</v>
       </c>
       <c r="D76">
@@ -2412,18 +2399,18 @@
       <c r="E76">
         <v>-17.190000000000001</v>
       </c>
-      <c r="F76" s="1">
-        <v>10828</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+      <c r="F76">
+        <v>10.827999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
         <v>-0.71</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
         <v>0.25</v>
       </c>
       <c r="D77">
@@ -2432,18 +2419,18 @@
       <c r="E77">
         <v>-12.99</v>
       </c>
-      <c r="F77" s="1">
-        <v>7508</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="F77">
+        <v>7.508</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
         <v>-0.67</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78">
         <v>0.23</v>
       </c>
       <c r="D78">
@@ -2452,18 +2439,18 @@
       <c r="E78">
         <v>-15.37</v>
       </c>
-      <c r="F78" s="1">
-        <v>10468</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+      <c r="F78">
+        <v>10.468</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
         <v>-0.67</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79">
         <v>0.23</v>
       </c>
       <c r="D79">
@@ -2472,18 +2459,18 @@
       <c r="E79">
         <v>-10.53</v>
       </c>
-      <c r="F79" s="1">
-        <v>10588</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+      <c r="F79">
+        <v>10.587999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>-0.61</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
         <v>-0.66</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80">
         <v>0.19</v>
       </c>
       <c r="D80">
@@ -2492,18 +2479,18 @@
       <c r="E80">
         <v>-11.74</v>
       </c>
-      <c r="F80" s="1">
-        <v>11308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+      <c r="F80">
+        <v>11.308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>-0.95</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
         <v>-1.02</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81">
         <v>1.06</v>
       </c>
       <c r="D81">
@@ -2516,14 +2503,14 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
         <v>-0.69</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82">
         <v>0.04</v>
       </c>
       <c r="D82">
@@ -2536,14 +2523,14 @@
         <v>-10.58</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>-0.59</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>-0.91</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83">
         <v>-0.02</v>
       </c>
       <c r="D83">
@@ -2556,14 +2543,14 @@
         <v>40.99</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>-0.84</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
         <v>0.4</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84">
         <v>0.71</v>
       </c>
       <c r="D84">
@@ -2572,18 +2559,18 @@
       <c r="E84">
         <v>-29.34</v>
       </c>
-      <c r="F84" s="1">
-        <v>14499</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+      <c r="F84">
+        <v>1.4499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>-0.48</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
         <v>-0.66</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85">
         <v>0.28999999999999998</v>
       </c>
       <c r="D85">
@@ -2596,14 +2583,14 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>-0.59</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
         <v>-0.69</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86">
         <v>0.24</v>
       </c>
       <c r="D86">
@@ -2616,14 +2603,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>-0.59</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <v>-0.69</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87">
         <v>0.19</v>
       </c>
       <c r="D87">
@@ -2632,18 +2619,18 @@
       <c r="E87">
         <v>-10.56</v>
       </c>
-      <c r="F87" s="1">
-        <v>10853</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+      <c r="F87">
+        <v>10.853</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <v>-0.77</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88">
         <v>0.17</v>
       </c>
       <c r="D88">
@@ -2652,18 +2639,18 @@
       <c r="E88">
         <v>-10.44</v>
       </c>
-      <c r="F88" s="1">
-        <v>7653</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
+      <c r="F88">
+        <v>7.6529999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>-0.6</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <v>-0.78</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89">
         <v>0.19</v>
       </c>
       <c r="D89">
@@ -2672,18 +2659,18 @@
       <c r="E89">
         <v>-12.96</v>
       </c>
-      <c r="F89" s="1">
-        <v>10763</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+      <c r="F89">
+        <v>10.763</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>-0.61</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
         <v>-0.84</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90">
         <v>0.19</v>
       </c>
       <c r="D90">
@@ -2692,18 +2679,18 @@
       <c r="E90">
         <v>-10.49</v>
       </c>
-      <c r="F90" s="1">
-        <v>12583</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+      <c r="F90">
+        <v>12.583</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>-0.65</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
         <v>-0.84</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91">
         <v>0.19</v>
       </c>
       <c r="D91">
@@ -2712,18 +2699,18 @@
       <c r="E91">
         <v>-20.37</v>
       </c>
-      <c r="F91" s="1">
-        <v>91083</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+      <c r="F91">
+        <v>9.1082999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>-0.35</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
         <v>-0.48</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92">
         <v>0.19</v>
       </c>
       <c r="D92">
@@ -2732,18 +2719,18 @@
       <c r="E92">
         <v>-82.11</v>
       </c>
-      <c r="F92" s="1">
-        <v>5133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
+      <c r="F92">
+        <v>5.133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>0.32</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
         <v>-0.63</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93">
         <v>0.6</v>
       </c>
       <c r="D93">
@@ -2756,14 +2743,14 @@
         <v>-14.69</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>-0.37</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94">
         <v>-0.37</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94">
         <v>-0.1</v>
       </c>
       <c r="D94">
@@ -2776,14 +2763,14 @@
         <v>-48.64</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>-0.71</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95">
         <v>-0.37</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95">
         <v>0.39</v>
       </c>
       <c r="D95">
@@ -2796,14 +2783,14 @@
         <v>-14.35</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>-0.52</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
         <v>-0.93</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96">
         <v>0.08</v>
       </c>
       <c r="D96">
@@ -2812,18 +2799,18 @@
       <c r="E96">
         <v>-29.94</v>
       </c>
-      <c r="F96" s="1">
-        <v>14755</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+      <c r="F96">
+        <v>14.755000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>-0.53</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97">
         <v>-0.85</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97">
         <v>0.17</v>
       </c>
       <c r="D97">
@@ -2832,18 +2819,18 @@
       <c r="E97">
         <v>-2.85</v>
       </c>
-      <c r="F97" s="1">
-        <v>10445</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
+      <c r="F97">
+        <v>10.445</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98">
         <v>-0.87</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98">
         <v>0.15</v>
       </c>
       <c r="D98">
@@ -2852,18 +2839,18 @@
       <c r="E98">
         <v>-4.29</v>
       </c>
-      <c r="F98" s="1">
-        <v>47345</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
+      <c r="F98">
+        <v>4.7344999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>-0.88</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99">
         <v>0.2</v>
       </c>
       <c r="D99">
@@ -2872,18 +2859,18 @@
       <c r="E99">
         <v>-15.02</v>
       </c>
-      <c r="F99" s="1">
-        <v>10785</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
+      <c r="F99">
+        <v>10.785</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>-0.64</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100">
         <v>-0.85</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100">
         <v>0.08</v>
       </c>
       <c r="D100">
@@ -2892,18 +2879,18 @@
       <c r="E100">
         <v>-9.11</v>
       </c>
-      <c r="F100" s="1">
-        <v>12295</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+      <c r="F100">
+        <v>12.295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>-0.59</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101">
         <v>-0.86</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101">
         <v>0.17</v>
       </c>
       <c r="D101">
@@ -2912,18 +2899,18 @@
       <c r="E101">
         <v>-13.05</v>
       </c>
-      <c r="F101" s="1">
-        <v>9695</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
+      <c r="F101">
+        <v>9.6950000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>-0.61</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
         <v>-0.93</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102">
         <v>0.14000000000000001</v>
       </c>
       <c r="D102">
@@ -2932,18 +2919,18 @@
       <c r="E102">
         <v>-14.27</v>
       </c>
-      <c r="F102" s="1">
-        <v>7365</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
+      <c r="F102">
+        <v>7.3650000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>-0.62</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103">
         <v>-0.86</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103">
         <v>0.18</v>
       </c>
       <c r="D103">
@@ -2952,18 +2939,18 @@
       <c r="E103">
         <v>-16.12</v>
       </c>
-      <c r="F103" s="1">
-        <v>11405</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+      <c r="F103">
+        <v>11.404999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>-0.62</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
         <v>-0.91</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104">
         <v>0.12</v>
       </c>
       <c r="D104">
@@ -2972,18 +2959,18 @@
       <c r="E104">
         <v>-13.51</v>
       </c>
-      <c r="F104" s="1">
-        <v>8025</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
+      <c r="F104">
+        <v>8.0250000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>-0.62</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105">
         <v>-0.89</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105">
         <v>0.12</v>
       </c>
       <c r="D105">
@@ -2992,18 +2979,18 @@
       <c r="E105">
         <v>-19.04</v>
       </c>
-      <c r="F105" s="1">
-        <v>9745</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
+      <c r="F105">
+        <v>9.7449999999999992</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>-0.6</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106">
         <v>-0.83</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106">
         <v>0.16</v>
       </c>
       <c r="D106">
@@ -3012,18 +2999,18 @@
       <c r="E106">
         <v>-13.21</v>
       </c>
-      <c r="F106" s="1">
-        <v>8665</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
+      <c r="F106">
+        <v>8.6649999999999991</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>-0.61</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107">
         <v>-0.89</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107">
         <v>0.15</v>
       </c>
       <c r="D107">
@@ -3032,18 +3019,18 @@
       <c r="E107">
         <v>-12.87</v>
       </c>
-      <c r="F107" s="1">
-        <v>11915</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
+      <c r="F107">
+        <v>11.914999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108">
         <v>-0.88</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108">
         <v>0.22</v>
       </c>
       <c r="D108">
@@ -3056,14 +3043,14 @@
         <v>-11.48</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>-0.25</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109">
         <v>-0.97</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109">
         <v>-0.03</v>
       </c>
       <c r="D109">
@@ -3076,14 +3063,14 @@
         <v>-15.1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>-0.61</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110">
         <v>-1.22</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110">
         <v>0.01</v>
       </c>
       <c r="D110">
@@ -3096,14 +3083,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>-0.89</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111">
         <v>-1.03</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111">
         <v>0.12</v>
       </c>
       <c r="D111">
@@ -3112,18 +3099,18 @@
       <c r="E111">
         <v>163.27000000000001</v>
       </c>
-      <c r="F111" s="1">
-        <v>15081</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
+      <c r="F111">
+        <v>15.081</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>-0.43</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
         <v>-0.59</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112">
         <v>0.55000000000000004</v>
       </c>
       <c r="D112">
@@ -3132,18 +3119,18 @@
       <c r="E112">
         <v>-25.65</v>
       </c>
-      <c r="F112" s="1">
-        <v>18461</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
+      <c r="F112">
+        <v>18.460999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>-0.6</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113">
         <v>-0.86</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113">
         <v>0.2</v>
       </c>
       <c r="D113">
@@ -3152,18 +3139,18 @@
       <c r="E113">
         <v>-3.16</v>
       </c>
-      <c r="F113" s="1">
-        <v>508461</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
+      <c r="F113">
+        <v>5.0846099999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>-0.64</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114">
         <v>-0.84</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114">
         <v>0.1</v>
       </c>
       <c r="D114">
@@ -3172,18 +3159,18 @@
       <c r="E114">
         <v>-22.02</v>
       </c>
-      <c r="F114" s="1">
-        <v>10811</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
+      <c r="F114">
+        <v>10.811</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>-0.62</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115">
         <v>-0.83</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115">
         <v>0.27</v>
       </c>
       <c r="D115">
@@ -3192,18 +3179,18 @@
       <c r="E115">
         <v>-11.21</v>
       </c>
-      <c r="F115" s="1">
-        <v>99811</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
+      <c r="F115">
+        <v>9.9810999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>-0.62</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116">
         <v>-0.77</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116">
         <v>0.11</v>
       </c>
       <c r="D116">
@@ -3212,18 +3199,18 @@
       <c r="E116">
         <v>-12</v>
       </c>
-      <c r="F116" s="1">
-        <v>13251</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
+      <c r="F116">
+        <v>13.250999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>-0.54</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117">
         <v>-0.9</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117">
         <v>0.34</v>
       </c>
       <c r="D117">
@@ -3236,14 +3223,14 @@
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>-0.26</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D118">
@@ -3252,18 +3239,18 @@
       <c r="E118">
         <v>-12.34</v>
       </c>
-      <c r="F118" s="1">
-        <v>-1271</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
+      <c r="F118">
+        <v>-1.2709999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>-0.53</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119">
         <v>-0.38</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119">
         <v>0.21</v>
       </c>
       <c r="D119">
@@ -3276,14 +3263,14 @@
         <v>-16.46</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>-0.47</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120">
         <v>-0.19</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120">
         <v>-0.19</v>
       </c>
       <c r="D120">
@@ -3296,14 +3283,14 @@
         <v>-9.27</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>0.09</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121">
         <v>-1.23</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121">
         <v>1.32</v>
       </c>
       <c r="D121">
@@ -3312,18 +3299,18 @@
       <c r="E121">
         <v>-49.4</v>
       </c>
-      <c r="F121" s="1">
-        <v>-12187</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
+      <c r="F121">
+        <v>-12.186999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>-0.63</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122">
         <v>-0.91</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122">
         <v>0.19</v>
       </c>
       <c r="D122">
@@ -3332,18 +3319,18 @@
       <c r="E122">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F122" s="1">
-        <v>137687</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
+      <c r="F122">
+        <v>13.768700000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
         <v>-0.59</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123">
         <v>-0.77</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123">
         <v>0.15</v>
       </c>
       <c r="D123">
@@ -3352,18 +3339,18 @@
       <c r="E123">
         <v>-17.8</v>
       </c>
-      <c r="F123" s="1">
-        <v>98987</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
+      <c r="F123">
+        <v>9.8986999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>-0.61</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124">
         <v>-0.83</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124">
         <v>0.2</v>
       </c>
       <c r="D124">
@@ -3372,18 +3359,18 @@
       <c r="E124">
         <v>-9.27</v>
       </c>
-      <c r="F124" s="1">
-        <v>79887</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
+      <c r="F124">
+        <v>7.9886999999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>-0.61</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125">
         <v>-0.77</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125">
         <v>0.17</v>
       </c>
       <c r="D125">
@@ -3392,18 +3379,18 @@
       <c r="E125">
         <v>-14.76</v>
       </c>
-      <c r="F125" s="1">
-        <v>10967</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
+      <c r="F125">
+        <v>10.967000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>-0.61</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126">
         <v>-0.79</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126">
         <v>0.2</v>
       </c>
       <c r="D126">
@@ -3412,18 +3399,18 @@
       <c r="E126">
         <v>-17.66</v>
       </c>
-      <c r="F126" s="1">
-        <v>9507</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
+      <c r="F126">
+        <v>9.5069999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
         <v>-0.62</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127">
         <v>-0.79</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127">
         <v>0.17</v>
       </c>
       <c r="D127">
@@ -3432,18 +3419,18 @@
       <c r="E127">
         <v>-12.89</v>
       </c>
-      <c r="F127" s="1">
-        <v>7687</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
+      <c r="F127">
+        <v>7.6870000000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
         <v>-0.61</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128">
         <v>-0.76</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128">
         <v>0.21</v>
       </c>
       <c r="D128">
@@ -3452,18 +3439,18 @@
       <c r="E128">
         <v>-16.43</v>
       </c>
-      <c r="F128" s="1">
-        <v>10587</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
+      <c r="F128">
+        <v>10.587</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
         <v>-0.61</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129">
         <v>-0.82</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129">
         <v>0.16</v>
       </c>
       <c r="D129">
@@ -3472,18 +3459,18 @@
       <c r="E129">
         <v>-13.42</v>
       </c>
-      <c r="F129" s="1">
-        <v>91587</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
+      <c r="F129">
+        <v>9.1586999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130">
         <v>-0.6</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
         <v>-0.77</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130">
         <v>0.2</v>
       </c>
       <c r="D130">
@@ -3492,18 +3479,18 @@
       <c r="E130">
         <v>-16.18</v>
       </c>
-      <c r="F130" s="1">
-        <v>85887</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
+      <c r="F130">
+        <v>8.5886999999999993</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131">
         <v>-0.61</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131">
         <v>-0.79</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131">
         <v>0.2</v>
       </c>
       <c r="D131">
@@ -3512,18 +3499,18 @@
       <c r="E131">
         <v>-14.75</v>
       </c>
-      <c r="F131" s="1">
-        <v>9167</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
+      <c r="F131">
+        <v>9.1669999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>-0.62</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132">
         <v>-0.81</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132">
         <v>0.16</v>
       </c>
       <c r="D132">
@@ -3532,18 +3519,18 @@
       <c r="E132">
         <v>-11.44</v>
       </c>
-      <c r="F132" s="1">
-        <v>7607</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
+      <c r="F132">
+        <v>7.6070000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>-0.54</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133">
         <v>-0.67</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133">
         <v>0.36</v>
       </c>
       <c r="D133">
@@ -3552,18 +3539,18 @@
       <c r="E133">
         <v>-32.950000000000003</v>
       </c>
-      <c r="F133" s="1">
-        <v>4117</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
+      <c r="F133">
+        <v>4.117</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>-0.08</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134">
         <v>-0.02</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134">
         <v>0.26</v>
       </c>
       <c r="D134">
@@ -3576,14 +3563,14 @@
         <v>-0.63</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>-0.35</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135">
         <v>-0.15</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135">
         <v>-0.01</v>
       </c>
       <c r="D135">
@@ -3596,14 +3583,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>-0.45</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136">
         <v>-0.11</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136">
         <v>0.18</v>
       </c>
       <c r="D136">
@@ -3616,14 +3603,14 @@
         <v>-0.92</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>-0.59</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137">
         <v>-0.16</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137">
         <v>0.34</v>
       </c>
       <c r="D137">
@@ -3636,14 +3623,14 @@
         <v>-9.5</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138">
         <v>-0.64</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138">
         <v>-1.17</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138">
         <v>0.02</v>
       </c>
       <c r="D138">
@@ -3656,14 +3643,14 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>-0.59</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139">
         <v>-0.98</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139">
         <v>0.09</v>
       </c>
       <c r="D139">
@@ -3672,18 +3659,18 @@
       <c r="E139">
         <v>-17.079999999999998</v>
       </c>
-      <c r="F139" s="1">
-        <v>9362</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="F139">
+        <v>9.3620000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>-0.65</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140">
         <v>-1.04</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140">
         <v>0.03</v>
       </c>
       <c r="D140">
@@ -3696,14 +3683,14 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>-0.65</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141">
         <v>-0.98</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141">
         <v>0.05</v>
       </c>
       <c r="D141">
@@ -3716,14 +3703,14 @@
         <v>11.33</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>-0.63</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142">
         <v>-0.98</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142">
         <v>0.15</v>
       </c>
       <c r="D142">
@@ -3736,14 +3723,14 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143">
         <v>-0.65</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143">
         <v>-0.98</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143">
         <v>0.2</v>
       </c>
       <c r="D143">
@@ -3756,14 +3743,14 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144">
         <v>-0.68</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144">
         <v>-0.94</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144">
         <v>0.04</v>
       </c>
       <c r="D144">
@@ -3776,14 +3763,14 @@
         <v>10.55</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>-0.66</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145">
         <v>-0.93</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145">
         <v>0.14000000000000001</v>
       </c>
       <c r="D145">
@@ -3796,14 +3783,14 @@
         <v>13.01</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>-0.61</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146">
         <v>-1.02</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146">
         <v>0.31</v>
       </c>
       <c r="D146">
@@ -3816,14 +3803,14 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147">
         <v>-0.26</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147">
         <v>-0.12</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147">
         <v>0.15</v>
       </c>
       <c r="D147">
@@ -3836,14 +3823,14 @@
         <v>-0.56000000000000005</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148">
         <v>-0.5</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148">
         <v>-0.31</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148">
         <v>0.28999999999999998</v>
       </c>
       <c r="D148">
@@ -3852,18 +3839,18 @@
       <c r="E148">
         <v>38.69</v>
       </c>
-      <c r="F148" s="1">
-        <v>278956</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
+      <c r="F148">
+        <v>27.895600000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149">
         <v>-0.46</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149">
         <v>-0.08</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149">
         <v>0.02</v>
       </c>
       <c r="D149">
@@ -3876,14 +3863,14 @@
         <v>-30.96</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150">
         <v>-0.12</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150">
         <v>0.28999999999999998</v>
       </c>
       <c r="D150">
@@ -3892,18 +3879,18 @@
       <c r="E150">
         <v>-0.46</v>
       </c>
-      <c r="F150" s="1">
-        <v>27856</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
+      <c r="F150">
+        <v>27.856000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>-0.72</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151">
         <v>-0.84</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151">
         <v>0.44</v>
       </c>
       <c r="D151">
@@ -3912,18 +3899,18 @@
       <c r="E151">
         <v>-6.09</v>
       </c>
-      <c r="F151" s="1">
-        <v>256656</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="2">
+      <c r="F151">
+        <v>25.665600000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152">
         <v>-0.82</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152">
         <v>0.1</v>
       </c>
       <c r="D152">
@@ -3932,18 +3919,18 @@
       <c r="E152">
         <v>-13.85</v>
       </c>
-      <c r="F152" s="1">
-        <v>10996</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
+      <c r="F152">
+        <v>10.996</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>-0.59</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153">
         <v>-0.81</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153">
         <v>0.19</v>
       </c>
       <c r="D153">
@@ -3952,18 +3939,18 @@
       <c r="E153">
         <v>-8.9</v>
       </c>
-      <c r="F153" s="1">
-        <v>52496</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
+      <c r="F153">
+        <v>5.2496</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
         <v>-0.63</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154">
         <v>-0.89</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154">
         <v>0.14000000000000001</v>
       </c>
       <c r="D154">
@@ -3976,14 +3963,14 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>-0.69</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155">
         <v>-0.91</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155">
         <v>0.2</v>
       </c>
       <c r="D155">
@@ -3996,14 +3983,14 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
         <v>-0.65</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156">
         <v>-0.65</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156">
         <v>0.37</v>
       </c>
       <c r="D156">
@@ -4016,14 +4003,14 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
         <v>0.03</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157">
         <v>-1.1299999999999999</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157">
         <v>-0.02</v>
       </c>
       <c r="D157">
@@ -4036,14 +4023,14 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
         <v>-0.41</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158">
         <v>-0.68</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158">
         <v>-0.48</v>
       </c>
       <c r="D158">
@@ -4056,14 +4043,14 @@
         <v>36.85</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
         <v>-0.42</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159">
         <v>-1.45</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159">
         <v>0.06</v>
       </c>
       <c r="D159">
@@ -4076,14 +4063,14 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160">
         <v>-0.6</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160">
         <v>0.93</v>
       </c>
       <c r="D160">
@@ -4096,14 +4083,14 @@
         <v>-21.11</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161">
         <v>-1.07</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161">
         <v>0.36</v>
       </c>
       <c r="D161">
@@ -4116,14 +4103,14 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162">
         <v>-0.91</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162">
         <v>0.09</v>
       </c>
       <c r="D162">
@@ -4136,14 +4123,14 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
         <v>-0.64</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163">
         <v>-0.92</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163">
         <v>0.15</v>
       </c>
       <c r="D163">
@@ -4156,14 +4143,14 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
         <v>-0.62</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164">
         <v>-0.94</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164">
         <v>0.13</v>
       </c>
       <c r="D164">
@@ -4176,14 +4163,14 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
         <v>-0.64</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165">
         <v>-0.94</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165">
         <v>0.08</v>
       </c>
       <c r="D165">
@@ -4196,14 +4183,14 @@
         <v>12.53</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
         <v>-0.65</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166">
         <v>-0.9</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166">
         <v>0.02</v>
       </c>
       <c r="D166">
@@ -4216,14 +4203,14 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
         <v>-0.64</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167">
         <v>-0.86</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167">
         <v>0.16</v>
       </c>
       <c r="D167">
@@ -4232,18 +4219,18 @@
       <c r="E167">
         <v>-24.24</v>
       </c>
-      <c r="F167" s="1">
-        <v>6936</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="2">
+      <c r="F167">
+        <v>6.9359999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
         <v>-0.54</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168">
         <v>-0.9</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168">
         <v>0.16</v>
       </c>
       <c r="D168">
@@ -4256,14 +4243,14 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
         <v>-0.46</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169">
         <v>-0.89</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169">
         <v>0.01</v>
       </c>
       <c r="D169">
@@ -4276,14 +4263,14 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
         <v>-0.44</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170">
         <v>-0.95</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170">
         <v>0.28999999999999998</v>
       </c>
       <c r="D170">
@@ -4296,14 +4283,14 @@
         <v>22.82</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
         <v>-0.63</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171">
         <v>-0.86</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171">
         <v>0.17</v>
       </c>
       <c r="D171">
@@ -4316,14 +4303,14 @@
         <v>15.51</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
         <v>-0.65</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172">
         <v>-0.9</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172">
         <v>0.14000000000000001</v>
       </c>
       <c r="D172">
@@ -4332,18 +4319,18 @@
       <c r="E172">
         <v>4.7300000000000004</v>
       </c>
-      <c r="F172" s="1">
-        <v>11451</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
+      <c r="F172">
+        <v>11.451000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
         <v>-0.67</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173">
         <v>-0.78</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173">
         <v>0.09</v>
       </c>
       <c r="D173">
@@ -4356,14 +4343,14 @@
         <v>18.09</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
         <v>-0.89</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174">
         <v>-0.93</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174">
         <v>0.27</v>
       </c>
       <c r="D174">
